--- a/shipments.xlsx
+++ b/shipments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hh\Downloads\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0A6A463-4386-48AB-AF38-31A83C694852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61190B5A-4DCD-4922-9EC2-4E3D25CE0874}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27F51299-4B63-4B3A-804C-FBED883790F3}"/>
+    <workbookView xWindow="60165" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{27F51299-4B63-4B3A-804C-FBED883790F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
-  <si>
-    <t>3501 North Lancaster Hutchins Road</t>
-  </si>
-  <si>
-    <t>Lancaster</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TX</t>
   </si>
@@ -67,51 +61,6 @@
   </si>
   <si>
     <t>TN</t>
-  </si>
-  <si>
-    <t>3225 North 50Th Street</t>
-  </si>
-  <si>
-    <t>Tampa</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>30 Sadisco Road</t>
-  </si>
-  <si>
-    <t>Clayton</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>8021 East 100Th Avenue</t>
-  </si>
-  <si>
-    <t>Henderson</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>280 East Sullivan Road</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>8733 Siegen Lane</t>
-  </si>
-  <si>
-    <t>Baton Rouge</t>
-  </si>
-  <si>
-    <t>LA</t>
   </si>
 </sst>
 </file>
@@ -463,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3851B0A4-6B78-42F9-B659-2F7AB5A4B21C}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,16 +426,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1">
-        <v>75134</v>
+        <v>77386</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,122 +446,38 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>77386</v>
+        <v>92154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>92154</v>
+        <v>85226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>85226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
         <v>37656</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>33605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>27520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>80640</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>60505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>70810</v>
       </c>
     </row>
   </sheetData>
